--- a/Outputs/Exp_all_Run_all_exclusions_firstHour/Behavior Tables/run_all_exp_ER_inputData.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions_firstHour/Behavior Tables/run_all_exp_ER_inputData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2582" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="5164" uniqueCount="47">
   <si>
     <t>TagNumber</t>
   </si>
@@ -341,7 +341,9 @@
       <c r="Q2" s="0">
         <v>0</v>
       </c>
-      <c r="R2" s="0"/>
+      <c r="R2" s="0">
+        <v>17.577500000000015</v>
+      </c>
       <c r="S2" s="0">
         <v>0</v>
       </c>
@@ -402,7 +404,7 @@
         <v>5</v>
       </c>
       <c r="R3" s="0">
-        <v>42.206000000000003</v>
+        <v>40.917999999999992</v>
       </c>
       <c r="S3" s="0">
         <v>32.440800000000003</v>
@@ -464,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="R4" s="0">
-        <v>242.95200000000006</v>
+        <v>57.687500000000043</v>
       </c>
       <c r="S4" s="0">
         <v>22.978899999999999</v>
@@ -526,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="R5" s="0">
-        <v>14.575999999999976</v>
+        <v>13.399999999999977</v>
       </c>
       <c r="S5" s="0">
         <v>21.627200000000002</v>
@@ -588,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="R6" s="0">
-        <v>461.88666666666671</v>
+        <v>129.63250000000005</v>
       </c>
       <c r="S6" s="0">
         <v>29.737400000000001</v>
@@ -650,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="R7" s="0">
-        <v>332.90666666666658</v>
+        <v>6.6749999999999545</v>
       </c>
       <c r="S7" s="0">
         <v>12.1653</v>
@@ -712,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="R8" s="0">
-        <v>353.44999999999999</v>
+        <v>12.469999999999999</v>
       </c>
       <c r="S8" s="0">
         <v>13.516999999999999</v>
@@ -774,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="R9" s="0">
-        <v>143.40250000000003</v>
+        <v>81.454285714285788</v>
       </c>
       <c r="S9" s="0">
         <v>28.385700000000003</v>
@@ -898,7 +900,7 @@
         <v>2</v>
       </c>
       <c r="R11" s="0">
-        <v>77.439999999999998</v>
+        <v>75.97999999999999</v>
       </c>
       <c r="S11" s="0">
         <v>6.7584999999999997</v>
@@ -960,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="R12" s="0">
-        <v>45.290000000000049</v>
+        <v>45.173333333333382</v>
       </c>
       <c r="S12" s="0">
         <v>9.4619</v>
@@ -1022,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="R13" s="0">
-        <v>104.69000000000005</v>
+        <v>102.79666666666675</v>
       </c>
       <c r="S13" s="0">
         <v>13.516999999999999</v>
@@ -1084,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="R14" s="0">
-        <v>353.9666666666667</v>
+        <v>16.785000000000007</v>
       </c>
       <c r="S14" s="0">
         <v>13.516999999999999</v>
@@ -1270,7 +1272,7 @@
         <v>3</v>
       </c>
       <c r="R17" s="0">
-        <v>243.95333333333335</v>
+        <v>24.78000000000003</v>
       </c>
       <c r="S17" s="0">
         <v>16.220400000000001</v>
@@ -1580,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="0">
-        <v>211.17999999999986</v>
+        <v>32.449999999999875</v>
       </c>
       <c r="S22" s="0">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="0">
-        <v>216.23500000000001</v>
+        <v>26.410000000000043</v>
       </c>
       <c r="S24" s="0">
         <v>0</v>
@@ -1766,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="0">
-        <v>320.64333333333326</v>
+        <v>117.78</v>
       </c>
       <c r="S25" s="0">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="R26" s="0">
-        <v>743.17000000000007</v>
+        <v>17.490000000000009</v>
       </c>
       <c r="S26" s="0">
         <v>0</v>
@@ -1889,7 +1891,9 @@
       <c r="Q27" s="0">
         <v>0</v>
       </c>
-      <c r="R27" s="0"/>
+      <c r="R27" s="0">
+        <v>99.682499999999976</v>
+      </c>
       <c r="S27" s="0">
         <v>0</v>
       </c>
@@ -2012,7 +2016,7 @@
         <v>5</v>
       </c>
       <c r="R29" s="0">
-        <v>21.090000000000078</v>
+        <v>20.500000000000078</v>
       </c>
       <c r="S29" s="0">
         <v>16.220400000000001</v>
@@ -2074,7 +2078,7 @@
         <v>12</v>
       </c>
       <c r="R30" s="0">
-        <v>33.294166666666662</v>
+        <v>31.527499999999989</v>
       </c>
       <c r="S30" s="0">
         <v>28.385700000000003</v>
@@ -2136,7 +2140,7 @@
         <v>11</v>
       </c>
       <c r="R31" s="0">
-        <v>107.00999999999993</v>
+        <v>40.89899999999998</v>
       </c>
       <c r="S31" s="0">
         <v>35.144200000000005</v>
@@ -2198,7 +2202,7 @@
         <v>5</v>
       </c>
       <c r="R32" s="0">
-        <v>59.144999999999982</v>
+        <v>58.817500000000024</v>
       </c>
       <c r="S32" s="0">
         <v>12.1653</v>
@@ -2260,7 +2264,7 @@
         <v>6</v>
       </c>
       <c r="R33" s="0">
-        <v>301.57999999999998</v>
+        <v>28.365999999999985</v>
       </c>
       <c r="S33" s="0">
         <v>13.516999999999999</v>
@@ -2322,7 +2326,7 @@
         <v>7</v>
       </c>
       <c r="R34" s="0">
-        <v>45.247142857142826</v>
+        <v>44.8685714285714</v>
       </c>
       <c r="S34" s="0">
         <v>29.737400000000001</v>
@@ -2384,7 +2388,7 @@
         <v>10</v>
       </c>
       <c r="R35" s="0">
-        <v>59.717000000000063</v>
+        <v>59.407000000000025</v>
       </c>
       <c r="S35" s="0">
         <v>36.495899999999999</v>
@@ -2508,7 +2512,7 @@
         <v>3</v>
       </c>
       <c r="R37" s="0">
-        <v>25.306666666666597</v>
+        <v>24.889999999999969</v>
       </c>
       <c r="S37" s="0">
         <v>14.8687</v>
@@ -2570,7 +2574,7 @@
         <v>7</v>
       </c>
       <c r="R38" s="0">
-        <v>33.915714285714301</v>
+        <v>32.831428571428567</v>
       </c>
       <c r="S38" s="0">
         <v>47.309500000000007</v>
@@ -2632,7 +2636,7 @@
         <v>8</v>
       </c>
       <c r="R39" s="0">
-        <v>132.55428571428573</v>
+        <v>64.430000000000021</v>
       </c>
       <c r="S39" s="0">
         <v>29.737400000000001</v>
@@ -2694,7 +2698,7 @@
         <v>6</v>
       </c>
       <c r="R40" s="0">
-        <v>372.88600000000008</v>
+        <v>60.17250000000007</v>
       </c>
       <c r="S40" s="0">
         <v>25.682299999999998</v>
@@ -2756,7 +2760,7 @@
         <v>6</v>
       </c>
       <c r="R41" s="0">
-        <v>22.743333333333315</v>
+        <v>22.601666666666656</v>
       </c>
       <c r="S41" s="0">
         <v>27.033999999999999</v>
@@ -2818,7 +2822,7 @@
         <v>3</v>
       </c>
       <c r="R42" s="0">
-        <v>253.95000000000005</v>
+        <v>63.75</v>
       </c>
       <c r="S42" s="0">
         <v>14.8687</v>
@@ -3189,9 +3193,7 @@
       <c r="Q48" s="0">
         <v>0</v>
       </c>
-      <c r="R48" s="0">
-        <v>626.52999999999975</v>
-      </c>
+      <c r="R48" s="0"/>
       <c r="S48" s="0">
         <v>0</v>
       </c>
@@ -3437,7 +3439,9 @@
       <c r="Q52" s="0">
         <v>0</v>
       </c>
-      <c r="R52" s="0"/>
+      <c r="R52" s="0">
+        <v>212.45500000000004</v>
+      </c>
       <c r="S52" s="0">
         <v>0</v>
       </c>
@@ -3498,7 +3502,7 @@
         <v>4</v>
       </c>
       <c r="R53" s="0">
-        <v>6.2475000000000307</v>
+        <v>6.0550000000000352</v>
       </c>
       <c r="S53" s="0">
         <v>9.4619</v>
@@ -3560,7 +3564,7 @@
         <v>7</v>
       </c>
       <c r="R54" s="0">
-        <v>5.0842857142856861</v>
+        <v>4.4814285714285562</v>
       </c>
       <c r="S54" s="0">
         <v>13.516999999999999</v>
@@ -3682,7 +3686,7 @@
         <v>37</v>
       </c>
       <c r="R56" s="0">
-        <v>1.1762162162162233</v>
+        <v>1.1257142857142886</v>
       </c>
       <c r="S56" s="0">
         <v>125.7081</v>
@@ -3744,7 +3748,7 @@
         <v>62</v>
       </c>
       <c r="R57" s="0">
-        <v>1.1530645161290443</v>
+        <v>0.97198019801982194</v>
       </c>
       <c r="S57" s="0">
         <v>109.4877</v>
@@ -3806,7 +3810,7 @@
         <v>23</v>
       </c>
       <c r="R58" s="0">
-        <v>8.0204347826086924</v>
+        <v>11.741034482758613</v>
       </c>
       <c r="S58" s="0">
         <v>41.902699999999996</v>
@@ -3868,7 +3872,7 @@
         <v>14</v>
       </c>
       <c r="R59" s="0">
-        <v>15.947857142857144</v>
+        <v>13.421999999999999</v>
       </c>
       <c r="S59" s="0">
         <v>43.254400000000004</v>
@@ -3930,7 +3934,7 @@
         <v>13</v>
       </c>
       <c r="R60" s="0">
-        <v>4.0761538461538276</v>
+        <v>3.8399999999999803</v>
       </c>
       <c r="S60" s="0">
         <v>48.661200000000001</v>
@@ -3992,7 +3996,7 @@
         <v>11</v>
       </c>
       <c r="R61" s="0">
-        <v>39.953636363636377</v>
+        <v>38.990909090909106</v>
       </c>
       <c r="S61" s="0">
         <v>41.902699999999996</v>
@@ -4054,7 +4058,7 @@
         <v>11</v>
       </c>
       <c r="R62" s="0">
-        <v>16.699999999999999</v>
+        <v>16.349999999999987</v>
       </c>
       <c r="S62" s="0">
         <v>33.792500000000004</v>
@@ -4116,7 +4120,7 @@
         <v>10</v>
       </c>
       <c r="R63" s="0">
-        <v>41.462000000000003</v>
+        <v>40.299000000000014</v>
       </c>
       <c r="S63" s="0">
         <v>32.440800000000003</v>
@@ -4178,7 +4182,7 @@
         <v>10</v>
       </c>
       <c r="R64" s="0">
-        <v>45.182000000000016</v>
+        <v>44.810000000000016</v>
       </c>
       <c r="S64" s="0">
         <v>29.737400000000001</v>
@@ -4240,7 +4244,7 @@
         <v>12</v>
       </c>
       <c r="R65" s="0">
-        <v>3.0566666666667168</v>
+        <v>2.5791666666667177</v>
       </c>
       <c r="S65" s="0">
         <v>37.8476</v>
@@ -4302,7 +4306,7 @@
         <v>15</v>
       </c>
       <c r="R66" s="0">
-        <v>6.7526666666666681</v>
+        <v>5.0249999999999959</v>
       </c>
       <c r="S66" s="0">
         <v>33.792500000000004</v>
@@ -4364,7 +4368,7 @@
         <v>4</v>
       </c>
       <c r="R67" s="0">
-        <v>8.6175000000000104</v>
+        <v>6.798000000000016</v>
       </c>
       <c r="S67" s="0">
         <v>31.089100000000002</v>
@@ -4426,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="R68" s="0">
-        <v>76.72750000000002</v>
+        <v>28.321428571428573</v>
       </c>
       <c r="S68" s="0">
         <v>0</v>
@@ -4611,9 +4615,7 @@
       <c r="Q71" s="0">
         <v>0</v>
       </c>
-      <c r="R71" s="0">
-        <v>595.93000000000006</v>
-      </c>
+      <c r="R71" s="0"/>
       <c r="S71" s="0">
         <v>0</v>
       </c>
@@ -4736,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="R73" s="0">
-        <v>310.33399999999995</v>
+        <v>11.082499999999939</v>
       </c>
       <c r="S73" s="0">
         <v>0</v>
@@ -4918,7 +4920,7 @@
         <v>10</v>
       </c>
       <c r="R76" s="0">
-        <v>133.76999999999998</v>
+        <v>1.9277777777777803</v>
       </c>
       <c r="S76" s="0">
         <v>0</v>
@@ -4979,7 +4981,9 @@
       <c r="Q77" s="0">
         <v>0</v>
       </c>
-      <c r="R77" s="0"/>
+      <c r="R77" s="0">
+        <v>15.413999999999987</v>
+      </c>
       <c r="S77" s="0">
         <v>0</v>
       </c>
@@ -5040,7 +5044,7 @@
         <v>3</v>
       </c>
       <c r="R78" s="0">
-        <v>12.103333333333467</v>
+        <v>13.26400000000017</v>
       </c>
       <c r="S78" s="0">
         <v>4.0551000000000004</v>
@@ -5102,7 +5106,7 @@
         <v>6</v>
       </c>
       <c r="R79" s="0">
-        <v>22.81833333333331</v>
+        <v>22.294999999999977</v>
       </c>
       <c r="S79" s="0">
         <v>13.516999999999999</v>
@@ -5164,7 +5168,7 @@
         <v>8</v>
       </c>
       <c r="R80" s="0">
-        <v>48.588571428571456</v>
+        <v>47.394285714285765</v>
       </c>
       <c r="S80" s="0">
         <v>14.8687</v>
@@ -5226,7 +5230,7 @@
         <v>6</v>
       </c>
       <c r="R81" s="0">
-        <v>33.320000000000014</v>
+        <v>33.07500000000001</v>
       </c>
       <c r="S81" s="0">
         <v>13.516999999999999</v>
@@ -5350,7 +5354,7 @@
         <v>6</v>
       </c>
       <c r="R83" s="0">
-        <v>11.136666666666732</v>
+        <v>10.844999999999999</v>
       </c>
       <c r="S83" s="0">
         <v>16.220400000000001</v>
@@ -5412,7 +5416,7 @@
         <v>9</v>
       </c>
       <c r="R84" s="0">
-        <v>3.8344444444444181</v>
+        <v>3.1355555555555301</v>
       </c>
       <c r="S84" s="0">
         <v>14.8687</v>
@@ -5474,7 +5478,7 @@
         <v>7</v>
       </c>
       <c r="R85" s="0">
-        <v>1.8485714285714525</v>
+        <v>1.697142857142889</v>
       </c>
       <c r="S85" s="0">
         <v>28.385700000000003</v>
@@ -5536,7 +5540,7 @@
         <v>18</v>
       </c>
       <c r="R86" s="0">
-        <v>1.5811111111111069</v>
+        <v>1.6057894736842055</v>
       </c>
       <c r="S86" s="0">
         <v>35.144200000000005</v>
@@ -5660,7 +5664,7 @@
         <v>9</v>
       </c>
       <c r="R88" s="0">
-        <v>1.2877777777777513</v>
+        <v>1.2779999999999816</v>
       </c>
       <c r="S88" s="0">
         <v>27.033999999999999</v>
@@ -5722,7 +5726,7 @@
         <v>9</v>
       </c>
       <c r="R89" s="0">
-        <v>1.1788888888888951</v>
+        <v>1.1511111111111174</v>
       </c>
       <c r="S89" s="0">
         <v>32.440800000000003</v>
@@ -5784,7 +5788,7 @@
         <v>21</v>
       </c>
       <c r="R90" s="0">
-        <v>0.90428571428571602</v>
+        <v>0.86142857142857832</v>
       </c>
       <c r="S90" s="0">
         <v>37.8476</v>
@@ -5846,7 +5850,7 @@
         <v>13</v>
       </c>
       <c r="R91" s="0">
-        <v>5.7807692307691969</v>
+        <v>5.3323529411764481</v>
       </c>
       <c r="S91" s="0">
         <v>28.385700000000003</v>
@@ -6094,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="R95" s="0">
-        <v>221.03400000000002</v>
+        <v>22.762500000000003</v>
       </c>
       <c r="S95" s="0">
         <v>0</v>
@@ -6156,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="R96" s="0">
-        <v>352.76999999999998</v>
+        <v>3.6850000000000005</v>
       </c>
       <c r="S96" s="0">
         <v>0</v>
@@ -6404,7 +6408,7 @@
         <v>7</v>
       </c>
       <c r="R100" s="0">
-        <v>12.79285714285715</v>
+        <v>16.544444444444451</v>
       </c>
       <c r="S100" s="0">
         <v>0</v>
@@ -6465,7 +6469,9 @@
       <c r="Q101" s="0">
         <v>0</v>
       </c>
-      <c r="R101" s="0"/>
+      <c r="R101" s="0">
+        <v>180.70499999999996</v>
+      </c>
       <c r="S101" s="0">
         <v>0</v>
       </c>
@@ -6588,7 +6594,7 @@
         <v>2</v>
       </c>
       <c r="R103" s="0">
-        <v>18.720000000000027</v>
+        <v>16.230000000000103</v>
       </c>
       <c r="S103" s="0">
         <v>6.7584999999999997</v>
@@ -6650,7 +6656,7 @@
         <v>9</v>
       </c>
       <c r="R104" s="0">
-        <v>176.34888888888884</v>
+        <v>34.243333333333325</v>
       </c>
       <c r="S104" s="0">
         <v>22.978899999999999</v>
@@ -6712,7 +6718,7 @@
         <v>6</v>
       </c>
       <c r="R105" s="0">
-        <v>92.82000000000005</v>
+        <v>12.907500000000027</v>
       </c>
       <c r="S105" s="0">
         <v>18.9238</v>
@@ -6774,7 +6780,7 @@
         <v>2</v>
       </c>
       <c r="R106" s="0">
-        <v>572.06499999999994</v>
+        <v>49.329999999999984</v>
       </c>
       <c r="S106" s="0">
         <v>6.7584999999999997</v>
@@ -6836,7 +6842,7 @@
         <v>4</v>
       </c>
       <c r="R107" s="0">
-        <v>225.25000000000011</v>
+        <v>100.61666666666672</v>
       </c>
       <c r="S107" s="0">
         <v>10.813600000000001</v>
@@ -6898,7 +6904,7 @@
         <v>4</v>
       </c>
       <c r="R108" s="0">
-        <v>177.52499999999995</v>
+        <v>76.713333333333239</v>
       </c>
       <c r="S108" s="0">
         <v>17.572100000000002</v>
@@ -7022,7 +7028,7 @@
         <v>3</v>
       </c>
       <c r="R110" s="0">
-        <v>452.96000000000004</v>
+        <v>161.49500000000012</v>
       </c>
       <c r="S110" s="0">
         <v>10.813600000000001</v>
@@ -7084,7 +7090,7 @@
         <v>2</v>
       </c>
       <c r="R111" s="0">
-        <v>555.6149999999999</v>
+        <v>8.9600000000000364</v>
       </c>
       <c r="S111" s="0">
         <v>9.4619</v>
@@ -7208,7 +7214,7 @@
         <v>2</v>
       </c>
       <c r="R113" s="0">
-        <v>619.14999999999986</v>
+        <v>37.099999999999909</v>
       </c>
       <c r="S113" s="0">
         <v>2.7034000000000002</v>
@@ -7332,7 +7338,7 @@
         <v>2</v>
       </c>
       <c r="R115" s="0">
-        <v>66.605000000000018</v>
+        <v>62.67999999999995</v>
       </c>
       <c r="S115" s="0">
         <v>5.4068000000000005</v>
@@ -7394,7 +7400,7 @@
         <v>1</v>
       </c>
       <c r="R116" s="0">
-        <v>26.900000000000034</v>
+        <v>26.5</v>
       </c>
       <c r="S116" s="0">
         <v>1.3517000000000001</v>
@@ -7762,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="R122" s="0">
-        <v>374.01800000000009</v>
+        <v>2.9300000000000019</v>
       </c>
       <c r="S122" s="0">
         <v>0</v>
@@ -7886,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="R124" s="0">
-        <v>415.39999999999992</v>
+        <v>26.170000000000002</v>
       </c>
       <c r="S124" s="0">
         <v>0</v>
@@ -8007,7 +8013,9 @@
       <c r="Q126" s="0">
         <v>0</v>
       </c>
-      <c r="R126" s="0"/>
+      <c r="R126" s="0">
+        <v>26.283749999999962</v>
+      </c>
       <c r="S126" s="0">
         <v>0</v>
       </c>
@@ -8068,7 +8076,7 @@
         <v>8</v>
       </c>
       <c r="R127" s="0">
-        <v>11.126250000000027</v>
+        <v>10.300000000000011</v>
       </c>
       <c r="S127" s="0">
         <v>18.9238</v>
@@ -8130,7 +8138,7 @@
         <v>13</v>
       </c>
       <c r="R128" s="0">
-        <v>8.0761538461538276</v>
+        <v>6.1607142857142678</v>
       </c>
       <c r="S128" s="0">
         <v>18.9238</v>
@@ -8192,7 +8200,7 @@
         <v>12</v>
       </c>
       <c r="R129" s="0">
-        <v>4.8508333333333367</v>
+        <v>3.7000000000000193</v>
       </c>
       <c r="S129" s="0">
         <v>52.716300000000004</v>
@@ -8254,7 +8262,7 @@
         <v>16</v>
       </c>
       <c r="R130" s="0">
-        <v>13.199374999999971</v>
+        <v>12.275882352941156</v>
       </c>
       <c r="S130" s="0">
         <v>68.936700000000002</v>
@@ -8316,7 +8324,7 @@
         <v>11</v>
       </c>
       <c r="R131" s="0">
-        <v>7.2254545454545083</v>
+        <v>6.664999999999984</v>
       </c>
       <c r="S131" s="0">
         <v>27.033999999999999</v>
@@ -8378,7 +8386,7 @@
         <v>12</v>
       </c>
       <c r="R132" s="0">
-        <v>3.7716666666667407</v>
+        <v>3.5525000000000495</v>
       </c>
       <c r="S132" s="0">
         <v>31.089100000000002</v>
@@ -8440,7 +8448,7 @@
         <v>5</v>
       </c>
       <c r="R133" s="0">
-        <v>2.6600000000000024</v>
+        <v>2.5600000000000023</v>
       </c>
       <c r="S133" s="0">
         <v>18.9238</v>
@@ -8502,7 +8510,7 @@
         <v>11</v>
       </c>
       <c r="R134" s="0">
-        <v>18.414545454545443</v>
+        <v>19.028461538461521</v>
       </c>
       <c r="S134" s="0">
         <v>27.033999999999999</v>
@@ -8564,7 +8572,7 @@
         <v>9</v>
       </c>
       <c r="R135" s="0">
-        <v>16.468888888888873</v>
+        <v>16.29777777777776</v>
       </c>
       <c r="S135" s="0">
         <v>31.089100000000002</v>
@@ -8626,7 +8634,7 @@
         <v>5</v>
       </c>
       <c r="R136" s="0">
-        <v>9.4979999999999958</v>
+        <v>8.4619999999999944</v>
       </c>
       <c r="S136" s="0">
         <v>18.9238</v>
@@ -8688,7 +8696,7 @@
         <v>17</v>
       </c>
       <c r="R137" s="0">
-        <v>16.090588235294128</v>
+        <v>14.89777777777778</v>
       </c>
       <c r="S137" s="0">
         <v>35.144200000000005</v>
@@ -8750,7 +8758,7 @@
         <v>11</v>
       </c>
       <c r="R138" s="0">
-        <v>4.4454545454545551</v>
+        <v>3.9227272727272715</v>
       </c>
       <c r="S138" s="0">
         <v>28.385700000000003</v>
@@ -8812,7 +8820,7 @@
         <v>12</v>
       </c>
       <c r="R139" s="0">
-        <v>48.98333333333332</v>
+        <v>10.157499999999972</v>
       </c>
       <c r="S139" s="0">
         <v>31.089100000000002</v>
@@ -8874,7 +8882,7 @@
         <v>9</v>
       </c>
       <c r="R140" s="0">
-        <v>6.9277777777777949</v>
+        <v>6.5100000000000078</v>
       </c>
       <c r="S140" s="0">
         <v>33.792500000000004</v>
@@ -8936,7 +8944,7 @@
         <v>11</v>
       </c>
       <c r="R141" s="0">
-        <v>3.6863636363636711</v>
+        <v>3.294615384615438</v>
       </c>
       <c r="S141" s="0">
         <v>37.8476</v>
@@ -9122,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="R144" s="0">
-        <v>336.89333333333337</v>
+        <v>6.463333333333364</v>
       </c>
       <c r="S144" s="0">
         <v>0</v>
@@ -9370,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="R148" s="0">
-        <v>105.83428571428567</v>
+        <v>28.686666666666639</v>
       </c>
       <c r="S148" s="0">
         <v>0</v>
@@ -9494,7 +9502,7 @@
         <v>17</v>
       </c>
       <c r="R150" s="0">
-        <v>11.877058823529415</v>
+        <v>13.071666666666674</v>
       </c>
       <c r="S150" s="0">
         <v>0</v>
@@ -9555,7 +9563,9 @@
       <c r="Q151" s="0">
         <v>0</v>
       </c>
-      <c r="R151" s="0"/>
+      <c r="R151" s="0">
+        <v>63.439999999999941</v>
+      </c>
       <c r="S151" s="0">
         <v>0</v>
       </c>
@@ -9616,7 +9626,7 @@
         <v>3</v>
       </c>
       <c r="R152" s="0">
-        <v>9.7500000000000373</v>
+        <v>7.8066666666666906</v>
       </c>
       <c r="S152" s="0">
         <v>8.1102000000000007</v>
@@ -9678,7 +9688,7 @@
         <v>8</v>
       </c>
       <c r="R153" s="0">
-        <v>33.025000000000048</v>
+        <v>32.267500000000055</v>
       </c>
       <c r="S153" s="0">
         <v>25.682299999999998</v>
@@ -9740,7 +9750,7 @@
         <v>5</v>
       </c>
       <c r="R154" s="0">
-        <v>16.297999999999984</v>
+        <v>14.180000000000012</v>
       </c>
       <c r="S154" s="0">
         <v>116.2462</v>
@@ -9802,7 +9812,7 @@
         <v>5</v>
       </c>
       <c r="R155" s="0">
-        <v>23.78599999999998</v>
+        <v>20.007999999999935</v>
       </c>
       <c r="S155" s="0">
         <v>86.508800000000008</v>
@@ -9864,7 +9874,7 @@
         <v>6</v>
       </c>
       <c r="R156" s="0">
-        <v>20.205000000000013</v>
+        <v>18.564999999999987</v>
       </c>
       <c r="S156" s="0">
         <v>98.67410000000001</v>
@@ -9926,7 +9936,7 @@
         <v>5</v>
       </c>
       <c r="R157" s="0">
-        <v>39.794000000000032</v>
+        <v>38.052000000000035</v>
       </c>
       <c r="S157" s="0">
         <v>58.123100000000001</v>
@@ -9988,7 +9998,7 @@
         <v>3</v>
       </c>
       <c r="R158" s="0">
-        <v>22.010000000000048</v>
+        <v>21.466666666666715</v>
       </c>
       <c r="S158" s="0">
         <v>48.661200000000001</v>
@@ -10050,7 +10060,7 @@
         <v>6</v>
       </c>
       <c r="R159" s="0">
-        <v>208.655</v>
+        <v>30.522000000000002</v>
       </c>
       <c r="S159" s="0">
         <v>44.606100000000005</v>
@@ -10174,7 +10184,7 @@
         <v>5</v>
       </c>
       <c r="R161" s="0">
-        <v>25.187500000000036</v>
+        <v>25.162500000000037</v>
       </c>
       <c r="S161" s="0">
         <v>22.978899999999999</v>
@@ -10236,7 +10246,7 @@
         <v>14</v>
       </c>
       <c r="R162" s="0">
-        <v>21.678571428571413</v>
+        <v>20.392857142857128</v>
       </c>
       <c r="S162" s="0">
         <v>28.385700000000003</v>
@@ -10360,7 +10370,7 @@
         <v>8</v>
       </c>
       <c r="R164" s="0">
-        <v>55.782499999999999</v>
+        <v>55.594999999999999</v>
       </c>
       <c r="S164" s="0">
         <v>35.144200000000005</v>
@@ -10422,7 +10432,7 @@
         <v>11</v>
       </c>
       <c r="R165" s="0">
-        <v>31.840000000000035</v>
+        <v>31.800000000000033</v>
       </c>
       <c r="S165" s="0">
         <v>28.385700000000003</v>
@@ -10484,7 +10494,7 @@
         <v>16</v>
       </c>
       <c r="R166" s="0">
-        <v>8.7706250000000416</v>
+        <v>8.5731250000000383</v>
       </c>
       <c r="S166" s="0">
         <v>39.199300000000001</v>
@@ -10546,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="R167" s="0">
-        <v>104.67812499999999</v>
+        <v>14.577857142857116</v>
       </c>
       <c r="S167" s="0">
         <v>0</v>
@@ -10670,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="R169" s="0">
-        <v>189.01750000000001</v>
+        <v>58.805000000000007</v>
       </c>
       <c r="S169" s="0">
         <v>0</v>
@@ -11042,7 +11052,7 @@
         <v>11</v>
       </c>
       <c r="R175" s="0">
-        <v>4.6536363636363607</v>
+        <v>3.9154545454545424</v>
       </c>
       <c r="S175" s="0">
         <v>0</v>
@@ -11103,7 +11113,9 @@
       <c r="Q176" s="0">
         <v>0</v>
       </c>
-      <c r="R176" s="0"/>
+      <c r="R176" s="0">
+        <v>34.335000000000093</v>
+      </c>
       <c r="S176" s="0">
         <v>0</v>
       </c>
@@ -11164,7 +11176,7 @@
         <v>4</v>
       </c>
       <c r="R177" s="0">
-        <v>13.997500000000031</v>
+        <v>9.7625000000000171</v>
       </c>
       <c r="S177" s="0">
         <v>6.7584999999999997</v>
@@ -11348,7 +11360,7 @@
         <v>4</v>
       </c>
       <c r="R180" s="0">
-        <v>19.900000000000006</v>
+        <v>17.95750000000001</v>
       </c>
       <c r="S180" s="0">
         <v>8.1102000000000007</v>
@@ -11409,9 +11421,7 @@
       <c r="Q181" s="0">
         <v>1</v>
       </c>
-      <c r="R181" s="0">
-        <v>1382.3600000000001</v>
-      </c>
+      <c r="R181" s="0"/>
       <c r="S181" s="0">
         <v>5.4068000000000005</v>
       </c>
@@ -11472,7 +11482,7 @@
         <v>4</v>
       </c>
       <c r="R182" s="0">
-        <v>104.94749999999996</v>
+        <v>99.944999999999965</v>
       </c>
       <c r="S182" s="0">
         <v>14.8687</v>
@@ -11534,7 +11544,7 @@
         <v>4</v>
       </c>
       <c r="R183" s="0">
-        <v>69.586666666666687</v>
+        <v>68.86666666666666</v>
       </c>
       <c r="S183" s="0">
         <v>21.627200000000002</v>
@@ -11596,7 +11606,7 @@
         <v>4</v>
       </c>
       <c r="R184" s="0">
-        <v>305.8775</v>
+        <v>17.933333333333334</v>
       </c>
       <c r="S184" s="0">
         <v>10.813600000000001</v>
@@ -11658,7 +11668,7 @@
         <v>2</v>
       </c>
       <c r="R185" s="0">
-        <v>11.745000000000005</v>
+        <v>11.104999999999983</v>
       </c>
       <c r="S185" s="0">
         <v>8.1102000000000007</v>
@@ -11720,7 +11730,7 @@
         <v>6</v>
       </c>
       <c r="R186" s="0">
-        <v>162.63799999999995</v>
+        <v>40.774999999999949</v>
       </c>
       <c r="S186" s="0">
         <v>13.516999999999999</v>
@@ -11782,7 +11792,7 @@
         <v>4</v>
       </c>
       <c r="R187" s="0">
-        <v>13.954999999999995</v>
+        <v>13.152500000000028</v>
       </c>
       <c r="S187" s="0">
         <v>6.7584999999999997</v>
@@ -11844,7 +11854,7 @@
         <v>2</v>
       </c>
       <c r="R188" s="0">
-        <v>80.179999999999993</v>
+        <v>75.885000000000005</v>
       </c>
       <c r="S188" s="0">
         <v>10.813600000000001</v>
@@ -11906,7 +11916,7 @@
         <v>4</v>
       </c>
       <c r="R189" s="0">
-        <v>480.25749999999994</v>
+        <v>12.45999999999996</v>
       </c>
       <c r="S189" s="0">
         <v>8.1102000000000007</v>
@@ -11968,7 +11978,7 @@
         <v>3</v>
       </c>
       <c r="R190" s="0">
-        <v>7.1466666666665519</v>
+        <v>3.0633333333332566</v>
       </c>
       <c r="S190" s="0">
         <v>10.813600000000001</v>
@@ -12092,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="R192" s="0">
-        <v>144.85333333333335</v>
+        <v>32.740000000000023</v>
       </c>
       <c r="S192" s="0">
         <v>0</v>
@@ -12154,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="R193" s="0">
-        <v>223.53750000000002</v>
+        <v>19.434999999999999</v>
       </c>
       <c r="S193" s="0">
         <v>0</v>
@@ -12340,7 +12350,7 @@
         <v>0</v>
       </c>
       <c r="R196" s="0">
-        <v>159.7825</v>
+        <v>65.386666666666656</v>
       </c>
       <c r="S196" s="0">
         <v>0</v>
@@ -12463,9 +12473,7 @@
       <c r="Q198" s="0">
         <v>0</v>
       </c>
-      <c r="R198" s="0">
-        <v>479.27000000000004</v>
-      </c>
+      <c r="R198" s="0"/>
       <c r="S198" s="0">
         <v>0</v>
       </c>
@@ -12526,7 +12534,7 @@
         <v>3</v>
       </c>
       <c r="R199" s="0">
-        <v>20.690000000000012</v>
+        <v>56.624000000000002</v>
       </c>
       <c r="S199" s="0">
         <v>0</v>
@@ -12587,7 +12595,9 @@
       <c r="Q200" s="0">
         <v>0</v>
       </c>
-      <c r="R200" s="0"/>
+      <c r="R200" s="0">
+        <v>134.68714285714287</v>
+      </c>
       <c r="S200" s="0">
         <v>0</v>
       </c>
@@ -12770,7 +12780,7 @@
         <v>5</v>
       </c>
       <c r="R203" s="0">
-        <v>286.33799999999997</v>
+        <v>59.477500000000013</v>
       </c>
       <c r="S203" s="0">
         <v>18.9238</v>
@@ -12894,7 +12904,7 @@
         <v>8</v>
       </c>
       <c r="R205" s="0">
-        <v>99.258571428571528</v>
+        <v>98.674285714285816</v>
       </c>
       <c r="S205" s="0">
         <v>32.440800000000003</v>
@@ -12956,7 +12966,7 @@
         <v>2</v>
       </c>
       <c r="R206" s="0">
-        <v>352.17499999999995</v>
+        <v>35.299999999999955</v>
       </c>
       <c r="S206" s="0">
         <v>14.8687</v>
@@ -13080,7 +13090,7 @@
         <v>5</v>
       </c>
       <c r="R208" s="0">
-        <v>410.25749999999994</v>
+        <v>172.74666666666667</v>
       </c>
       <c r="S208" s="0">
         <v>24.3306</v>
@@ -13141,9 +13151,7 @@
       <c r="Q209" s="0">
         <v>1</v>
       </c>
-      <c r="R209" s="0">
-        <v>773.67999999999995</v>
-      </c>
+      <c r="R209" s="0"/>
       <c r="S209" s="0">
         <v>10.813600000000001</v>
       </c>
@@ -13204,7 +13212,7 @@
         <v>6</v>
       </c>
       <c r="R210" s="0">
-        <v>43.108000000000018</v>
+        <v>42.760000000000005</v>
       </c>
       <c r="S210" s="0">
         <v>45.957799999999999</v>
@@ -13266,7 +13274,7 @@
         <v>6</v>
       </c>
       <c r="R211" s="0">
-        <v>25.358000000000001</v>
+        <v>25.030000000000033</v>
       </c>
       <c r="S211" s="0">
         <v>35.144200000000005</v>
@@ -13328,7 +13336,7 @@
         <v>5</v>
       </c>
       <c r="R212" s="0">
-        <v>220.75399999999996</v>
+        <v>87.589999999999918</v>
       </c>
       <c r="S212" s="0">
         <v>27.033999999999999</v>
@@ -13390,7 +13398,7 @@
         <v>4</v>
       </c>
       <c r="R213" s="0">
-        <v>326.73500000000007</v>
+        <v>7.9066666666666663</v>
       </c>
       <c r="S213" s="0">
         <v>18.9238</v>
@@ -13452,7 +13460,7 @@
         <v>5</v>
       </c>
       <c r="R214" s="0">
-        <v>27.26599999999997</v>
+        <v>25.973999999999961</v>
       </c>
       <c r="S214" s="0">
         <v>50.012900000000002</v>
@@ -13576,7 +13584,7 @@
         <v>0</v>
       </c>
       <c r="R216" s="0">
-        <v>179.11499999999995</v>
+        <v>72.359999999999971</v>
       </c>
       <c r="S216" s="0">
         <v>0</v>
@@ -13824,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="R220" s="0">
-        <v>211.86250000000004</v>
+        <v>26.786666666666672</v>
       </c>
       <c r="S220" s="0">
         <v>0</v>
@@ -13946,7 +13954,7 @@
         <v>0</v>
       </c>
       <c r="R222" s="0">
-        <v>245.64250000000004</v>
+        <v>97.490000000000038</v>
       </c>
       <c r="S222" s="0">
         <v>0</v>
@@ -14008,7 +14016,7 @@
         <v>7</v>
       </c>
       <c r="R223" s="0">
-        <v>115.05857142857144</v>
+        <v>48.936666666666639</v>
       </c>
       <c r="S223" s="0">
         <v>0</v>
@@ -14069,7 +14077,9 @@
       <c r="Q224" s="0">
         <v>0</v>
       </c>
-      <c r="R224" s="0"/>
+      <c r="R224" s="0">
+        <v>28.510000000000023</v>
+      </c>
       <c r="S224" s="0">
         <v>0</v>
       </c>
@@ -14130,7 +14140,7 @@
         <v>17</v>
       </c>
       <c r="R225" s="0">
-        <v>9.8523529411764716</v>
+        <v>7.4570588235294206</v>
       </c>
       <c r="S225" s="0">
         <v>28.385700000000003</v>
@@ -14192,7 +14202,7 @@
         <v>17</v>
       </c>
       <c r="R226" s="0">
-        <v>12.475882352941168</v>
+        <v>11.028421052631574</v>
       </c>
       <c r="S226" s="0">
         <v>36.495899999999999</v>
@@ -14254,7 +14264,7 @@
         <v>17</v>
       </c>
       <c r="R227" s="0">
-        <v>12.57470588235296</v>
+        <v>11.887058823529427</v>
       </c>
       <c r="S227" s="0">
         <v>31.089100000000002</v>
@@ -14316,7 +14326,7 @@
         <v>18</v>
       </c>
       <c r="R228" s="0">
-        <v>4.6922222222222274</v>
+        <v>4.2061111111111167</v>
       </c>
       <c r="S228" s="0">
         <v>35.144200000000005</v>
@@ -14378,7 +14388,7 @@
         <v>9</v>
       </c>
       <c r="R229" s="0">
-        <v>35.735555555555557</v>
+        <v>35.535555555555554</v>
       </c>
       <c r="S229" s="0">
         <v>31.089100000000002</v>
@@ -14440,7 +14450,7 @@
         <v>11</v>
       </c>
       <c r="R230" s="0">
-        <v>30.237999999999953</v>
+        <v>29.021999999999945</v>
       </c>
       <c r="S230" s="0">
         <v>44.606100000000005</v>
@@ -14502,7 +14512,7 @@
         <v>12</v>
       </c>
       <c r="R231" s="0">
-        <v>6.7608333333333333</v>
+        <v>5.2169230769230799</v>
       </c>
       <c r="S231" s="0">
         <v>25.682299999999998</v>
@@ -14564,7 +14574,7 @@
         <v>3</v>
       </c>
       <c r="R232" s="0">
-        <v>105.70666666666665</v>
+        <v>79.247499999999988</v>
       </c>
       <c r="S232" s="0">
         <v>6.7584999999999997</v>
@@ -14626,7 +14636,7 @@
         <v>6</v>
       </c>
       <c r="R233" s="0">
-        <v>9.1416666666666995</v>
+        <v>7.1816666666667421</v>
       </c>
       <c r="S233" s="0">
         <v>14.8687</v>
@@ -14688,7 +14698,7 @@
         <v>7</v>
       </c>
       <c r="R234" s="0">
-        <v>177.84571428571431</v>
+        <v>13.49</v>
       </c>
       <c r="S234" s="0">
         <v>24.3306</v>
@@ -14750,7 +14760,7 @@
         <v>6</v>
       </c>
       <c r="R235" s="0">
-        <v>9.5299999999999994</v>
+        <v>9.4083333333333332</v>
       </c>
       <c r="S235" s="0">
         <v>18.9238</v>
@@ -14812,7 +14822,7 @@
         <v>12</v>
       </c>
       <c r="R236" s="0">
-        <v>3.4291666666666725</v>
+        <v>2.9230769230769287</v>
       </c>
       <c r="S236" s="0">
         <v>29.737400000000001</v>
@@ -14874,7 +14884,7 @@
         <v>9</v>
       </c>
       <c r="R237" s="0">
-        <v>9.2333333333333361</v>
+        <v>8.8020000000000032</v>
       </c>
       <c r="S237" s="0">
         <v>18.9238</v>
@@ -14936,7 +14946,7 @@
         <v>12</v>
       </c>
       <c r="R238" s="0">
-        <v>143.97333333333333</v>
+        <v>5.2161538461538379</v>
       </c>
       <c r="S238" s="0">
         <v>21.627200000000002</v>
@@ -15122,7 +15132,7 @@
         <v>0</v>
       </c>
       <c r="R241" s="0">
-        <v>178.02249999999992</v>
+        <v>149.62857142857138</v>
       </c>
       <c r="S241" s="0">
         <v>0</v>
@@ -15184,7 +15194,7 @@
         <v>0</v>
       </c>
       <c r="R242" s="0">
-        <v>93.745555555555512</v>
+        <v>49.583749999999959</v>
       </c>
       <c r="S242" s="0">
         <v>0</v>
@@ -15246,7 +15256,7 @@
         <v>0</v>
       </c>
       <c r="R243" s="0">
-        <v>177.10666666666657</v>
+        <v>62.645000000000003</v>
       </c>
       <c r="S243" s="0">
         <v>0</v>
@@ -15494,7 +15504,7 @@
         <v>13</v>
       </c>
       <c r="R247" s="0">
-        <v>26.611538461538409</v>
+        <v>24.474374999999952</v>
       </c>
       <c r="S247" s="0">
         <v>0</v>
@@ -15555,7 +15565,9 @@
       <c r="Q248" s="0">
         <v>0</v>
       </c>
-      <c r="R248" s="0"/>
+      <c r="R248" s="0">
+        <v>88.84571428571428</v>
+      </c>
       <c r="S248" s="0">
         <v>0</v>
       </c>
@@ -15616,7 +15628,7 @@
         <v>8</v>
       </c>
       <c r="R249" s="0">
-        <v>165.48857142857142</v>
+        <v>128.38333333333333</v>
       </c>
       <c r="S249" s="0">
         <v>43.254400000000004</v>
@@ -15738,7 +15750,7 @@
         <v>6</v>
       </c>
       <c r="R251" s="0">
-        <v>89.496666666666712</v>
+        <v>87.901666666666685</v>
       </c>
       <c r="S251" s="0">
         <v>47.309500000000007</v>
@@ -15800,7 +15812,7 @@
         <v>8</v>
       </c>
       <c r="R252" s="0">
-        <v>264.79000000000002</v>
+        <v>17.112857142857159</v>
       </c>
       <c r="S252" s="0">
         <v>93.267299999999992</v>
@@ -15986,7 +15998,7 @@
         <v>5</v>
       </c>
       <c r="R255" s="0">
-        <v>34.16749999999999</v>
+        <v>34.124999999999993</v>
       </c>
       <c r="S255" s="0">
         <v>31.089100000000002</v>
@@ -16048,7 +16060,7 @@
         <v>5</v>
       </c>
       <c r="R256" s="0">
-        <v>82.852000000000004</v>
+        <v>82.486000000000018</v>
       </c>
       <c r="S256" s="0">
         <v>13.516999999999999</v>
@@ -16110,7 +16122,7 @@
         <v>3</v>
       </c>
       <c r="R257" s="0">
-        <v>180.77333333333331</v>
+        <v>64.404999999999973</v>
       </c>
       <c r="S257" s="0">
         <v>10.813600000000001</v>
@@ -16172,7 +16184,7 @@
         <v>12</v>
       </c>
       <c r="R258" s="0">
-        <v>37.236363636363578</v>
+        <v>37.021818181818112</v>
       </c>
       <c r="S258" s="0">
         <v>62.178200000000004</v>
@@ -16358,7 +16370,7 @@
         <v>2</v>
       </c>
       <c r="R261" s="0">
-        <v>708.85500000000002</v>
+        <v>283</v>
       </c>
       <c r="S261" s="0">
         <v>9.4619</v>
@@ -16420,7 +16432,7 @@
         <v>2</v>
       </c>
       <c r="R262" s="0">
-        <v>9.2300000000000004</v>
+        <v>8.2999999999999972</v>
       </c>
       <c r="S262" s="0">
         <v>14.8687</v>
@@ -16668,7 +16680,7 @@
         <v>0</v>
       </c>
       <c r="R266" s="0">
-        <v>241.07833333333338</v>
+        <v>18.382499999999929</v>
       </c>
       <c r="S266" s="0">
         <v>0</v>
@@ -16730,7 +16742,7 @@
         <v>0</v>
       </c>
       <c r="R267" s="0">
-        <v>196.25250000000005</v>
+        <v>106.96000000000008</v>
       </c>
       <c r="S267" s="0">
         <v>0</v>
@@ -16792,7 +16804,7 @@
         <v>0</v>
       </c>
       <c r="R268" s="0">
-        <v>111.44874999999998</v>
+        <v>62.124285714285712</v>
       </c>
       <c r="S268" s="0">
         <v>0</v>
@@ -16978,7 +16990,7 @@
         <v>19</v>
       </c>
       <c r="R271" s="0">
-        <v>37.846315789473692</v>
+        <v>36.817894736842121</v>
       </c>
       <c r="S271" s="0">
         <v>0</v>
@@ -17039,7 +17051,9 @@
       <c r="Q272" s="0">
         <v>0</v>
       </c>
-      <c r="R272" s="0"/>
+      <c r="R272" s="0">
+        <v>33.002499999999941</v>
+      </c>
       <c r="S272" s="0">
         <v>0</v>
       </c>
@@ -17100,7 +17114,7 @@
         <v>15</v>
       </c>
       <c r="R273" s="0">
-        <v>14.420666666666667</v>
+        <v>12.554000000000007</v>
       </c>
       <c r="S273" s="0">
         <v>37.8476</v>
@@ -17162,7 +17176,7 @@
         <v>5</v>
       </c>
       <c r="R274" s="0">
-        <v>12.283999999999997</v>
+        <v>12.219999999999988</v>
       </c>
       <c r="S274" s="0">
         <v>31.089100000000002</v>
@@ -17224,7 +17238,7 @@
         <v>10</v>
       </c>
       <c r="R275" s="0">
-        <v>34.641111111111158</v>
+        <v>32.75111111111115</v>
       </c>
       <c r="S275" s="0">
         <v>50.012900000000002</v>
@@ -17286,7 +17300,7 @@
         <v>3</v>
       </c>
       <c r="R276" s="0">
-        <v>105.82666666666665</v>
+        <v>105.56333333333332</v>
       </c>
       <c r="S276" s="0">
         <v>22.978899999999999</v>
@@ -17410,7 +17424,7 @@
         <v>9</v>
       </c>
       <c r="R278" s="0">
-        <v>175.46444444444444</v>
+        <v>19.006250000000001</v>
       </c>
       <c r="S278" s="0">
         <v>28.385700000000003</v>
@@ -17472,7 +17486,7 @@
         <v>8</v>
       </c>
       <c r="R279" s="0">
-        <v>14.510000000000023</v>
+        <v>14.441428571428592</v>
       </c>
       <c r="S279" s="0">
         <v>24.3306</v>
@@ -17534,7 +17548,7 @@
         <v>7</v>
       </c>
       <c r="R280" s="0">
-        <v>16.745000000000005</v>
+        <v>16.463333333333338</v>
       </c>
       <c r="S280" s="0">
         <v>17.572100000000002</v>
@@ -17596,7 +17610,7 @@
         <v>4</v>
       </c>
       <c r="R281" s="0">
-        <v>3.9374999999999858</v>
+        <v>3.8474999999999824</v>
       </c>
       <c r="S281" s="0">
         <v>13.516999999999999</v>
@@ -17658,7 +17672,7 @@
         <v>6</v>
       </c>
       <c r="R282" s="0">
-        <v>3.9833333333333449</v>
+        <v>2.7433333333333443</v>
       </c>
       <c r="S282" s="0">
         <v>24.3306</v>
@@ -17720,7 +17734,7 @@
         <v>17</v>
       </c>
       <c r="R283" s="0">
-        <v>7.9247058823529608</v>
+        <v>7.5170588235294309</v>
       </c>
       <c r="S283" s="0">
         <v>60.826500000000003</v>
@@ -17782,7 +17796,7 @@
         <v>13</v>
       </c>
       <c r="R284" s="0">
-        <v>64.033846153846127</v>
+        <v>2.6416666666666466</v>
       </c>
       <c r="S284" s="0">
         <v>40.551000000000002</v>
@@ -17844,7 +17858,7 @@
         <v>7</v>
       </c>
       <c r="R285" s="0">
-        <v>39.700000000000045</v>
+        <v>36.581428571428603</v>
       </c>
       <c r="S285" s="0">
         <v>22.978899999999999</v>
@@ -17906,7 +17920,7 @@
         <v>4</v>
       </c>
       <c r="R286" s="0">
-        <v>7.3399999999999679</v>
+        <v>7.2274999999999707</v>
       </c>
       <c r="S286" s="0">
         <v>16.220400000000001</v>
@@ -18154,7 +18168,7 @@
         <v>0</v>
       </c>
       <c r="R290" s="0">
-        <v>127.63874999999996</v>
+        <v>79.764285714285634</v>
       </c>
       <c r="S290" s="0">
         <v>0</v>
@@ -18216,7 +18230,7 @@
         <v>0</v>
       </c>
       <c r="R291" s="0">
-        <v>147.44200000000001</v>
+        <v>80.375000000000014</v>
       </c>
       <c r="S291" s="0">
         <v>0</v>
@@ -18464,7 +18478,7 @@
         <v>12</v>
       </c>
       <c r="R295" s="0">
-        <v>49.400000000000034</v>
+        <v>13.76083333333338</v>
       </c>
       <c r="S295" s="0">
         <v>0</v>
@@ -18525,7 +18539,9 @@
       <c r="Q296" s="0">
         <v>0</v>
       </c>
-      <c r="R296" s="0"/>
+      <c r="R296" s="0">
+        <v>68.481666666666698</v>
+      </c>
       <c r="S296" s="0">
         <v>0</v>
       </c>
@@ -18586,7 +18602,7 @@
         <v>4</v>
       </c>
       <c r="R297" s="0">
-        <v>41.66749999999999</v>
+        <v>41.097499999999997</v>
       </c>
       <c r="S297" s="0">
         <v>29.737400000000001</v>
@@ -18648,7 +18664,7 @@
         <v>4</v>
       </c>
       <c r="R298" s="0">
-        <v>37.994999999999933</v>
+        <v>37.239999999999938</v>
       </c>
       <c r="S298" s="0">
         <v>43.254400000000004</v>
@@ -18710,7 +18726,7 @@
         <v>6</v>
       </c>
       <c r="R299" s="0">
-        <v>17.741666666666639</v>
+        <v>17.436666666666667</v>
       </c>
       <c r="S299" s="0">
         <v>33.792500000000004</v>
@@ -18772,7 +18788,7 @@
         <v>10</v>
       </c>
       <c r="R300" s="0">
-        <v>218.42800000000005</v>
+        <v>29.978750000000073</v>
       </c>
       <c r="S300" s="0">
         <v>43.254400000000004</v>
@@ -18834,7 +18850,7 @@
         <v>6</v>
       </c>
       <c r="R301" s="0">
-        <v>150.51166666666668</v>
+        <v>68.766000000000091</v>
       </c>
       <c r="S301" s="0">
         <v>31.089100000000002</v>
@@ -18896,7 +18912,7 @@
         <v>6</v>
       </c>
       <c r="R302" s="0">
-        <v>54.918333333333379</v>
+        <v>54.203333333333383</v>
       </c>
       <c r="S302" s="0">
         <v>37.8476</v>
@@ -18958,7 +18974,7 @@
         <v>3</v>
       </c>
       <c r="R303" s="0">
-        <v>11.936666666666667</v>
+        <v>11.423333333333318</v>
       </c>
       <c r="S303" s="0">
         <v>33.792500000000004</v>
@@ -19082,7 +19098,7 @@
         <v>5</v>
       </c>
       <c r="R305" s="0">
-        <v>38.453999999999986</v>
+        <v>35.379999999999981</v>
       </c>
       <c r="S305" s="0">
         <v>24.3306</v>
@@ -19144,7 +19160,7 @@
         <v>6</v>
       </c>
       <c r="R306" s="0">
-        <v>26.246666666666687</v>
+        <v>21.654999999999973</v>
       </c>
       <c r="S306" s="0">
         <v>27.033999999999999</v>
@@ -19206,7 +19222,7 @@
         <v>7</v>
       </c>
       <c r="R307" s="0">
-        <v>14.57285714285714</v>
+        <v>14.008571428571418</v>
       </c>
       <c r="S307" s="0">
         <v>37.8476</v>
@@ -19268,7 +19284,7 @@
         <v>11</v>
       </c>
       <c r="R308" s="0">
-        <v>11.926363636363574</v>
+        <v>11.706666666666615</v>
       </c>
       <c r="S308" s="0">
         <v>47.309500000000007</v>
@@ -19330,7 +19346,7 @@
         <v>29</v>
       </c>
       <c r="R309" s="0">
-        <v>2.0827586206896322</v>
+        <v>2.0426666666666415</v>
       </c>
       <c r="S309" s="0">
         <v>51.364599999999996</v>
@@ -19392,7 +19408,7 @@
         <v>22</v>
       </c>
       <c r="R310" s="0">
-        <v>1.9499999999999977</v>
+        <v>1.9832142857142852</v>
       </c>
       <c r="S310" s="0">
         <v>51.364599999999996</v>
@@ -19454,7 +19470,7 @@
         <v>0</v>
       </c>
       <c r="R311" s="0">
-        <v>33.446111111111087</v>
+        <v>11.40823529411764</v>
       </c>
       <c r="S311" s="0">
         <v>0</v>
@@ -19516,7 +19532,7 @@
         <v>0</v>
       </c>
       <c r="R312" s="0">
-        <v>111.301</v>
+        <v>2.3111111111111247</v>
       </c>
       <c r="S312" s="0">
         <v>0</v>
@@ -19950,7 +19966,7 @@
         <v>9</v>
       </c>
       <c r="R319" s="0">
-        <v>3.3211111111111089</v>
+        <v>2.1281818181818157</v>
       </c>
       <c r="S319" s="0">
         <v>0</v>
@@ -20011,7 +20027,9 @@
       <c r="Q320" s="0">
         <v>0</v>
       </c>
-      <c r="R320" s="0"/>
+      <c r="R320" s="0">
+        <v>154.28000000000003</v>
+      </c>
       <c r="S320" s="0">
         <v>0</v>
       </c>
@@ -20134,7 +20152,7 @@
         <v>6</v>
       </c>
       <c r="R322" s="0">
-        <v>47.193333333333328</v>
+        <v>44.289999999999999</v>
       </c>
       <c r="S322" s="0">
         <v>12.1653</v>
@@ -20196,7 +20214,7 @@
         <v>11</v>
       </c>
       <c r="R323" s="0">
-        <v>29.632727272727223</v>
+        <v>28.640909090909044</v>
       </c>
       <c r="S323" s="0">
         <v>60.826500000000003</v>
@@ -20258,7 +20276,7 @@
         <v>12</v>
       </c>
       <c r="R324" s="0">
-        <v>36.451818181818197</v>
+        <v>34.751818181818201</v>
       </c>
       <c r="S324" s="0">
         <v>45.957799999999999</v>
@@ -20320,7 +20338,7 @@
         <v>10</v>
       </c>
       <c r="R325" s="0">
-        <v>45.705999999999946</v>
+        <v>44.459999999999951</v>
       </c>
       <c r="S325" s="0">
         <v>37.8476</v>
@@ -20382,7 +20400,7 @@
         <v>6</v>
       </c>
       <c r="R326" s="0">
-        <v>8.0319999999999894</v>
+        <v>7.7579999999999885</v>
       </c>
       <c r="S326" s="0">
         <v>41.902699999999996</v>
@@ -20444,7 +20462,7 @@
         <v>6</v>
       </c>
       <c r="R327" s="0">
-        <v>269.25799999999992</v>
+        <v>36.009999999999991</v>
       </c>
       <c r="S327" s="0">
         <v>16.220400000000001</v>
@@ -20506,7 +20524,7 @@
         <v>2</v>
       </c>
       <c r="R328" s="0">
-        <v>27.060000000000059</v>
+        <v>23.190000000000168</v>
       </c>
       <c r="S328" s="0">
         <v>29.737400000000001</v>
@@ -20568,7 +20586,7 @@
         <v>6</v>
       </c>
       <c r="R329" s="0">
-        <v>79.621666666666684</v>
+        <v>78.428333333333356</v>
       </c>
       <c r="S329" s="0">
         <v>37.8476</v>
@@ -20630,7 +20648,7 @@
         <v>5</v>
       </c>
       <c r="R330" s="0">
-        <v>44.842000000000006</v>
+        <v>44.529999999999994</v>
       </c>
       <c r="S330" s="0">
         <v>22.978899999999999</v>
@@ -20692,7 +20710,7 @@
         <v>2</v>
       </c>
       <c r="R331" s="0">
-        <v>199.03000000000003</v>
+        <v>196.435</v>
       </c>
       <c r="S331" s="0">
         <v>39.199300000000001</v>
@@ -20878,7 +20896,7 @@
         <v>3</v>
       </c>
       <c r="R334" s="0">
-        <v>24.240000000000009</v>
+        <v>22.575000000000003</v>
       </c>
       <c r="S334" s="0">
         <v>18.9238</v>
@@ -20940,7 +20958,7 @@
         <v>0</v>
       </c>
       <c r="R335" s="0">
-        <v>444.03500000000003</v>
+        <v>23.307999999999957</v>
       </c>
       <c r="S335" s="0">
         <v>0</v>
@@ -21493,7 +21511,9 @@
       <c r="Q344" s="0">
         <v>0</v>
       </c>
-      <c r="R344" s="0"/>
+      <c r="R344" s="0">
+        <v>112.62666666666667</v>
+      </c>
       <c r="S344" s="0">
         <v>0</v>
       </c>
@@ -21554,7 +21574,7 @@
         <v>8</v>
       </c>
       <c r="R345" s="0">
-        <v>14.656250000000043</v>
+        <v>13.930000000000064</v>
       </c>
       <c r="S345" s="0">
         <v>45.957799999999999</v>
@@ -21616,7 +21636,7 @@
         <v>4</v>
       </c>
       <c r="R346" s="0">
-        <v>306.4233333333334</v>
+        <v>11.650000000000013</v>
       </c>
       <c r="S346" s="0">
         <v>22.978899999999999</v>
@@ -21677,9 +21697,7 @@
       <c r="Q347" s="0">
         <v>1</v>
       </c>
-      <c r="R347" s="0">
-        <v>851.31999999999994</v>
-      </c>
+      <c r="R347" s="0"/>
       <c r="S347" s="0">
         <v>27.033999999999999</v>
       </c>
@@ -21740,7 +21758,7 @@
         <v>3</v>
       </c>
       <c r="R348" s="0">
-        <v>17.790000000000003</v>
+        <v>15.006666666666666</v>
       </c>
       <c r="S348" s="0">
         <v>16.220400000000001</v>
@@ -21802,7 +21820,7 @@
         <v>6</v>
       </c>
       <c r="R349" s="0">
-        <v>332.38</v>
+        <v>47.099999999999994</v>
       </c>
       <c r="S349" s="0">
         <v>12.1653</v>
@@ -21926,7 +21944,7 @@
         <v>6</v>
       </c>
       <c r="R351" s="0">
-        <v>15.585000000000013</v>
+        <v>15.098333333333334</v>
       </c>
       <c r="S351" s="0">
         <v>39.199300000000001</v>
@@ -22050,7 +22068,7 @@
         <v>3</v>
       </c>
       <c r="R353" s="0">
-        <v>16.346666666666657</v>
+        <v>16.193333333333324</v>
       </c>
       <c r="S353" s="0">
         <v>4.0551000000000004</v>
@@ -22112,7 +22130,7 @@
         <v>5</v>
       </c>
       <c r="R354" s="0">
-        <v>36.899999999999991</v>
+        <v>34.567999999999998</v>
       </c>
       <c r="S354" s="0">
         <v>9.4619</v>
@@ -22174,7 +22192,7 @@
         <v>2</v>
       </c>
       <c r="R355" s="0">
-        <v>61.589999999999996</v>
+        <v>59.140000000000001</v>
       </c>
       <c r="S355" s="0">
         <v>6.7584999999999997</v>
@@ -22236,7 +22254,7 @@
         <v>4</v>
       </c>
       <c r="R356" s="0">
-        <v>549.3175</v>
+        <v>21.983333333333348</v>
       </c>
       <c r="S356" s="0">
         <v>9.4619</v>
@@ -22298,7 +22316,7 @@
         <v>2</v>
       </c>
       <c r="R357" s="0">
-        <v>286.61000000000001</v>
+        <v>9.3599999999999</v>
       </c>
       <c r="S357" s="0">
         <v>8.1102000000000007</v>
@@ -22422,7 +22440,7 @@
         <v>0</v>
       </c>
       <c r="R359" s="0">
-        <v>458.06142857142851</v>
+        <v>21.02999999999993</v>
       </c>
       <c r="S359" s="0">
         <v>0</v>
@@ -22608,7 +22626,7 @@
         <v>0</v>
       </c>
       <c r="R362" s="0">
-        <v>340.22333333333336</v>
+        <v>69.470000000000027</v>
       </c>
       <c r="S362" s="0">
         <v>0</v>
@@ -22855,9 +22873,7 @@
       <c r="Q366" s="0">
         <v>0</v>
       </c>
-      <c r="R366" s="0">
-        <v>1565.0900000000001</v>
-      </c>
+      <c r="R366" s="0"/>
       <c r="S366" s="0">
         <v>0</v>
       </c>
@@ -22918,7 +22934,7 @@
         <v>4</v>
       </c>
       <c r="R367" s="0">
-        <v>16.164999999999999</v>
+        <v>14.324999999999996</v>
       </c>
       <c r="S367" s="0">
         <v>0</v>
